--- a/artfynd/Björnideforsen B artfynd.xlsx
+++ b/artfynd/Björnideforsen B artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY113"/>
+  <dimension ref="A1:AY112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>118713485</v>
+        <v>118710571</v>
       </c>
       <c r="B2" t="n">
-        <v>79102</v>
+        <v>74596</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>6440</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>694605</v>
+        <v>694710</v>
       </c>
       <c r="R2" t="n">
-        <v>7327124</v>
+        <v>7327188</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -770,12 +770,12 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>118713495</v>
+        <v>118710616</v>
       </c>
       <c r="B3" t="n">
-        <v>79469</v>
+        <v>78129</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,25 +798,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6456</v>
+        <v>353</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>694520</v>
+        <v>694579</v>
       </c>
       <c r="R3" t="n">
-        <v>7327169</v>
+        <v>7327263</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -876,12 +876,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
@@ -892,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>118713502</v>
+        <v>118734897</v>
       </c>
       <c r="B4" t="n">
-        <v>79601</v>
+        <v>91779</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -908,34 +908,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6464</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>694703</v>
+        <v>694616</v>
       </c>
       <c r="R4" t="n">
-        <v>7327042</v>
+        <v>7327269</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -965,9 +965,19 @@
           <t>2024-07-26</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -982,12 +992,12 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -998,10 +1008,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>118710572</v>
+        <v>118722892</v>
       </c>
       <c r="B5" t="n">
-        <v>79102</v>
+        <v>79601</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1010,41 +1020,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>6464</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>694777</v>
+        <v>694522</v>
       </c>
       <c r="R5" t="n">
-        <v>7327389</v>
+        <v>7327143</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1088,12 +1098,12 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
@@ -1104,10 +1114,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>118713304</v>
+        <v>118713508</v>
       </c>
       <c r="B6" t="n">
-        <v>91779</v>
+        <v>78484</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1116,25 +1126,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1144,10 +1154,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>694424</v>
+        <v>694807</v>
       </c>
       <c r="R6" t="n">
-        <v>7327457</v>
+        <v>7326939</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1210,37 +1220,37 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>118734898</v>
+        <v>118712796</v>
       </c>
       <c r="B7" t="n">
-        <v>95394</v>
+        <v>79600</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>6463</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1250,10 +1260,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>694544</v>
+        <v>694616</v>
       </c>
       <c r="R7" t="n">
-        <v>7327230</v>
+        <v>7327016</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1283,19 +1293,9 @@
           <t>2024-07-26</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>16:23</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2024-07-26</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>16:23</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1310,12 +1310,12 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
@@ -1326,7 +1326,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>118710608</v>
+        <v>118722905</v>
       </c>
       <c r="B8" t="n">
         <v>78484</v>
@@ -1362,17 +1362,17 @@
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>694586</v>
+        <v>694526</v>
       </c>
       <c r="R8" t="n">
-        <v>7327268</v>
+        <v>7327134</v>
       </c>
       <c r="S8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1416,12 +1416,12 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
@@ -1432,10 +1432,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>118722909</v>
+        <v>118713517</v>
       </c>
       <c r="B9" t="n">
-        <v>78484</v>
+        <v>77416</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1448,34 +1448,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6487</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>694808</v>
+        <v>694605</v>
       </c>
       <c r="R9" t="n">
-        <v>7326935</v>
+        <v>7327124</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1522,12 +1522,12 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
@@ -1538,10 +1538,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>118712793</v>
+        <v>118722894</v>
       </c>
       <c r="B10" t="n">
-        <v>77879</v>
+        <v>97750</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1550,25 +1550,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>502</v>
+        <v>220093</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ladlav</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Calicium tigillare</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Pers.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1578,10 +1578,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>694548</v>
+        <v>694764</v>
       </c>
       <c r="R10" t="n">
-        <v>7327036</v>
+        <v>7327023</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1628,12 +1628,12 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
@@ -1644,10 +1644,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>118712792</v>
+        <v>118734899</v>
       </c>
       <c r="B11" t="n">
-        <v>79601</v>
+        <v>97867</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1660,21 +1660,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6464</v>
+        <v>221952</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>694616</v>
+        <v>694504</v>
       </c>
       <c r="R11" t="n">
-        <v>7327016</v>
+        <v>7327185</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1717,9 +1717,19 @@
           <t>2024-07-26</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>16:21</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>16:21</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1734,12 +1744,12 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -1750,10 +1760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>118708328</v>
+        <v>118713302</v>
       </c>
       <c r="B12" t="n">
-        <v>79102</v>
+        <v>90654</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1762,25 +1772,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>1503</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1790,13 +1800,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>694666</v>
+        <v>694401</v>
       </c>
       <c r="R12" t="n">
-        <v>7327051</v>
+        <v>7327511</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1840,12 +1850,12 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Jennica Andersson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Jennica Andersson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
@@ -1856,10 +1866,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>118710571</v>
+        <v>118713489</v>
       </c>
       <c r="B13" t="n">
-        <v>74596</v>
+        <v>79073</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1872,21 +1882,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6440</v>
+        <v>229821</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1896,13 +1906,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>694710</v>
+        <v>694623</v>
       </c>
       <c r="R13" t="n">
-        <v>7327188</v>
+        <v>7327061</v>
       </c>
       <c r="S13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1946,12 +1956,12 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
@@ -1962,10 +1972,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>118710623</v>
+        <v>118710582</v>
       </c>
       <c r="B14" t="n">
-        <v>91773</v>
+        <v>79073</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1978,21 +1988,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>229821</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2002,10 +2012,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>694340</v>
+        <v>694776</v>
       </c>
       <c r="R14" t="n">
-        <v>7327606</v>
+        <v>7327401</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2068,10 +2078,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>118713297</v>
+        <v>118713511</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>78129</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2084,21 +2094,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1588</v>
+        <v>353</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2108,10 +2118,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>694713</v>
+        <v>694605</v>
       </c>
       <c r="R15" t="n">
-        <v>7326945</v>
+        <v>7327124</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2174,7 +2184,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>118713303</v>
+        <v>118722906</v>
       </c>
       <c r="B16" t="n">
         <v>78484</v>
@@ -2210,14 +2220,14 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>694709</v>
+        <v>694699</v>
       </c>
       <c r="R16" t="n">
-        <v>7326944</v>
+        <v>7327045</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2264,12 +2274,12 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
@@ -2280,10 +2290,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>118722908</v>
+        <v>118722882</v>
       </c>
       <c r="B17" t="n">
-        <v>78484</v>
+        <v>79469</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2292,25 +2302,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2320,10 +2330,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>694764</v>
+        <v>694501</v>
       </c>
       <c r="R17" t="n">
-        <v>7326998</v>
+        <v>7327178</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2386,10 +2396,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>118722894</v>
+        <v>118713502</v>
       </c>
       <c r="B18" t="n">
-        <v>97750</v>
+        <v>79601</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2402,34 +2412,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220093</v>
+        <v>6464</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>694764</v>
+        <v>694703</v>
       </c>
       <c r="R18" t="n">
-        <v>7327023</v>
+        <v>7327042</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2476,12 +2486,12 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -2492,10 +2502,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>118722903</v>
+        <v>118713300</v>
       </c>
       <c r="B19" t="n">
-        <v>90522</v>
+        <v>79601</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2504,38 +2514,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>6464</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>694725</v>
+        <v>694521</v>
       </c>
       <c r="R19" t="n">
-        <v>7327052</v>
+        <v>7327152</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2582,12 +2592,12 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
@@ -2598,10 +2608,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>118713520</v>
+        <v>118710587</v>
       </c>
       <c r="B20" t="n">
-        <v>77868</v>
+        <v>79469</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2610,25 +2620,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6437</v>
+        <v>6456</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2638,13 +2648,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>694708</v>
+        <v>694382</v>
       </c>
       <c r="R20" t="n">
-        <v>7327047</v>
+        <v>7327420</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2688,12 +2698,12 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -2704,10 +2714,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>118710610</v>
+        <v>118710620</v>
       </c>
       <c r="B21" t="n">
-        <v>78484</v>
+        <v>79600</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2716,20 +2726,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2744,10 +2754,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>694613</v>
+        <v>694697</v>
       </c>
       <c r="R21" t="n">
-        <v>7327275</v>
+        <v>7327145</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2810,10 +2820,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>118712790</v>
+        <v>118713483</v>
       </c>
       <c r="B22" t="n">
-        <v>96807</v>
+        <v>74596</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2822,38 +2832,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221941</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>694803</v>
+        <v>694804</v>
       </c>
       <c r="R22" t="n">
-        <v>7327101</v>
+        <v>7326934</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2900,12 +2910,12 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
@@ -2916,10 +2926,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>118734905</v>
+        <v>118734904</v>
       </c>
       <c r="B23" t="n">
-        <v>5166</v>
+        <v>5186</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2932,21 +2942,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100526</v>
+        <v>105930</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3057,10 +3067,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>118712791</v>
+        <v>118710613</v>
       </c>
       <c r="B24" t="n">
-        <v>78221</v>
+        <v>82263</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3073,37 +3083,37 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>228912</v>
+        <v>1312</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>694796</v>
+        <v>694814</v>
       </c>
       <c r="R24" t="n">
-        <v>7327132</v>
+        <v>7327052</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3147,12 +3157,12 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
@@ -3163,10 +3173,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>118713488</v>
+        <v>118708328</v>
       </c>
       <c r="B25" t="n">
-        <v>79073</v>
+        <v>79102</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3179,21 +3189,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3203,13 +3213,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>694605</v>
+        <v>694666</v>
       </c>
       <c r="R25" t="n">
-        <v>7327124</v>
+        <v>7327051</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3253,12 +3263,12 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jennica Andersson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jennica Andersson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
@@ -3269,10 +3279,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>118722905</v>
+        <v>118734902</v>
       </c>
       <c r="B26" t="n">
-        <v>78484</v>
+        <v>79469</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3281,38 +3291,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>694526</v>
+        <v>694498</v>
       </c>
       <c r="R26" t="n">
-        <v>7327134</v>
+        <v>7327189</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3342,29 +3355,55 @@
           <t>2024-07-26</t>
         </is>
       </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>16:07</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2024-07-26</t>
         </is>
       </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>16:07</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
@@ -3375,10 +3414,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>118713505</v>
+        <v>118713514</v>
       </c>
       <c r="B27" t="n">
-        <v>78220</v>
+        <v>79600</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3387,45 +3426,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6446</v>
+        <v>6463</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>694577</v>
+        <v>694657</v>
       </c>
       <c r="R27" t="n">
-        <v>7327172</v>
+        <v>7327252</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3466,7 +3498,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3489,10 +3520,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>118710578</v>
+        <v>118713520</v>
       </c>
       <c r="B28" t="n">
-        <v>79102</v>
+        <v>77868</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3505,21 +3536,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6453</v>
+        <v>6437</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3529,13 +3560,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>694436</v>
+        <v>694708</v>
       </c>
       <c r="R28" t="n">
-        <v>7327431</v>
+        <v>7327047</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3579,12 +3610,12 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">
@@ -3595,10 +3626,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>118713302</v>
+        <v>118712790</v>
       </c>
       <c r="B29" t="n">
-        <v>90654</v>
+        <v>96807</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3607,38 +3638,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1503</v>
+        <v>221941</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>694401</v>
+        <v>694803</v>
       </c>
       <c r="R29" t="n">
-        <v>7327511</v>
+        <v>7327101</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3685,12 +3716,12 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr">
@@ -3701,10 +3732,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>118710605</v>
+        <v>118710617</v>
       </c>
       <c r="B30" t="n">
-        <v>78566</v>
+        <v>91779</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3713,41 +3744,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>864</v>
+        <v>4364</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>694712</v>
+        <v>694404</v>
       </c>
       <c r="R30" t="n">
-        <v>7327141</v>
+        <v>7327574</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3788,7 +3816,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3811,10 +3838,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>118710620</v>
+        <v>118713507</v>
       </c>
       <c r="B31" t="n">
-        <v>79600</v>
+        <v>78484</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3823,20 +3850,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3851,13 +3878,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>694697</v>
+        <v>694577</v>
       </c>
       <c r="R31" t="n">
-        <v>7327145</v>
+        <v>7327264</v>
       </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3901,12 +3928,12 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr">
@@ -3917,10 +3944,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>118710616</v>
+        <v>118708329</v>
       </c>
       <c r="B32" t="n">
-        <v>78129</v>
+        <v>91779</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3929,25 +3956,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>353</v>
+        <v>4364</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3957,13 +3984,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>694579</v>
+        <v>694646</v>
       </c>
       <c r="R32" t="n">
-        <v>7327263</v>
+        <v>7327055</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4007,12 +4034,12 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Jennica Andersson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Jennica Andersson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -4023,10 +4050,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>118734904</v>
+        <v>118710583</v>
       </c>
       <c r="B33" t="n">
-        <v>5186</v>
+        <v>79073</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4035,46 +4062,41 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>105930</v>
+        <v>229821</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>694594</v>
+        <v>694393</v>
       </c>
       <c r="R33" t="n">
-        <v>7327119</v>
+        <v>7327476</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4101,21 +4123,11 @@
           <t>2024-07-26</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>15:43</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2024-07-26</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>15:43</t>
-        </is>
-      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -4124,36 +4136,16 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>Klen granlåga.</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Picea abies # Klen granlåga.</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr">
@@ -4164,10 +4156,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>118713497</v>
+        <v>118734896</v>
       </c>
       <c r="B34" t="n">
-        <v>78221</v>
+        <v>91779</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4176,38 +4168,38 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>694577</v>
+        <v>694794</v>
       </c>
       <c r="R34" t="n">
-        <v>7327264</v>
+        <v>7327158</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4237,9 +4229,19 @@
           <t>2024-07-26</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>16:47</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>16:47</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4254,12 +4256,12 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr">
@@ -4270,10 +4272,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>118722906</v>
+        <v>118713496</v>
       </c>
       <c r="B35" t="n">
-        <v>78484</v>
+        <v>79469</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4282,38 +4284,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>694699</v>
+        <v>694501</v>
       </c>
       <c r="R35" t="n">
-        <v>7327045</v>
+        <v>7327187</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4360,12 +4362,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr">
@@ -4376,10 +4378,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>118713512</v>
+        <v>118722921</v>
       </c>
       <c r="B36" t="n">
-        <v>91779</v>
+        <v>91070</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4388,38 +4390,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4364</v>
+        <v>760</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>694609</v>
+        <v>694676</v>
       </c>
       <c r="R36" t="n">
-        <v>7327059</v>
+        <v>7327049</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4466,12 +4468,12 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -4482,10 +4484,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>118710614</v>
+        <v>118713500</v>
       </c>
       <c r="B37" t="n">
-        <v>90749</v>
+        <v>79601</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4494,25 +4496,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>65</v>
+        <v>6464</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4522,13 +4524,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>694410</v>
+        <v>694720</v>
       </c>
       <c r="R37" t="n">
-        <v>7327521</v>
+        <v>7327209</v>
       </c>
       <c r="S37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4572,12 +4574,12 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -4588,10 +4590,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>118710613</v>
+        <v>118710605</v>
       </c>
       <c r="B38" t="n">
-        <v>82263</v>
+        <v>78566</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4604,34 +4606,37 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1312</v>
+        <v>864</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>694814</v>
+        <v>694712</v>
       </c>
       <c r="R38" t="n">
-        <v>7327052</v>
+        <v>7327141</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4672,6 +4677,7 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -4694,10 +4700,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>118713517</v>
+        <v>118713505</v>
       </c>
       <c r="B39" t="n">
-        <v>77416</v>
+        <v>78220</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4710,34 +4716,41 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6487</v>
+        <v>6446</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>694605</v>
+        <v>694577</v>
       </c>
       <c r="R39" t="n">
-        <v>7327124</v>
+        <v>7327172</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4778,6 +4791,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -4800,10 +4814,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>118713514</v>
+        <v>118722880</v>
       </c>
       <c r="B40" t="n">
-        <v>79600</v>
+        <v>97867</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4816,34 +4830,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6463</v>
+        <v>221952</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>694657</v>
+        <v>694786</v>
       </c>
       <c r="R40" t="n">
-        <v>7327252</v>
+        <v>7326967</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4890,12 +4904,12 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">
@@ -4906,10 +4920,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>479071</v>
+        <v>118710615</v>
       </c>
       <c r="B41" t="n">
-        <v>90654</v>
+        <v>78129</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4918,41 +4932,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1503</v>
+        <v>353</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Trollberget, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>694274</v>
+        <v>694422</v>
       </c>
       <c r="R41" t="n">
-        <v>7327659</v>
+        <v>7327434</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -4976,12 +4990,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2007-09-08</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2007-09-08</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4996,22 +5010,26 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Mariell Vikström</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Mariell Vikström</t>
-        </is>
-      </c>
-      <c r="AY41" t="inlineStr"/>
+          <t>Jörgen Sundin</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>118713511</v>
+        <v>118713518</v>
       </c>
       <c r="B42" t="n">
-        <v>78129</v>
+        <v>41094</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5024,21 +5042,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>353</v>
+        <v>215713</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Grå blåbärsfältmätare</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Entephria caesiata</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Denis &amp; Schiffermüller, 1775)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5048,10 +5066,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>694605</v>
+        <v>694654</v>
       </c>
       <c r="R42" t="n">
-        <v>7327124</v>
+        <v>7327049</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5114,10 +5132,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>118710618</v>
+        <v>479074</v>
       </c>
       <c r="B43" t="n">
-        <v>79600</v>
+        <v>90654</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5126,41 +5144,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6463</v>
+        <v>1503</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Trollberget, Pi lm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>694712</v>
+        <v>694274</v>
       </c>
       <c r="R43" t="n">
-        <v>7327188</v>
+        <v>7327659</v>
       </c>
       <c r="S43" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5184,12 +5202,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2007-09-08</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2007-09-08</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5204,26 +5222,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mariell Vikström</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
-        </is>
-      </c>
-      <c r="AY43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Mariell Vikström</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>118713506</v>
+        <v>118710614</v>
       </c>
       <c r="B44" t="n">
-        <v>78566</v>
+        <v>90749</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5232,25 +5246,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>864</v>
+        <v>65</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5260,13 +5274,13 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>694810</v>
+        <v>694410</v>
       </c>
       <c r="R44" t="n">
-        <v>7326940</v>
+        <v>7327521</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5310,12 +5324,12 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr">
@@ -5326,10 +5340,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>118712786</v>
+        <v>118722920</v>
       </c>
       <c r="B45" t="n">
-        <v>79073</v>
+        <v>91070</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5338,25 +5352,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>229821</v>
+        <v>760</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5366,10 +5380,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>694548</v>
+        <v>694459</v>
       </c>
       <c r="R45" t="n">
-        <v>7327036</v>
+        <v>7327152</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5416,12 +5430,12 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr">
@@ -5432,10 +5446,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>118710588</v>
+        <v>118710580</v>
       </c>
       <c r="B46" t="n">
-        <v>91969</v>
+        <v>79102</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5448,21 +5462,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2079</v>
+        <v>6453</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5472,10 +5486,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>694455</v>
+        <v>694680</v>
       </c>
       <c r="R46" t="n">
-        <v>7327388</v>
+        <v>7327208</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5538,10 +5552,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>118710611</v>
+        <v>118712795</v>
       </c>
       <c r="B47" t="n">
-        <v>78484</v>
+        <v>77416</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5554,37 +5568,37 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>6487</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>694828</v>
+        <v>694796</v>
       </c>
       <c r="R47" t="n">
-        <v>7327045</v>
+        <v>7327132</v>
       </c>
       <c r="S47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5628,12 +5642,12 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
@@ -5644,10 +5658,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>118734896</v>
+        <v>118713504</v>
       </c>
       <c r="B48" t="n">
-        <v>91779</v>
+        <v>78220</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5656,38 +5670,45 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>694794</v>
+        <v>694577</v>
       </c>
       <c r="R48" t="n">
-        <v>7327158</v>
+        <v>7327264</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5717,39 +5738,30 @@
           <t>2024-07-26</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>16:47</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2024-07-26</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>16:47</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr">
@@ -5760,10 +5772,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>118710573</v>
+        <v>118710604</v>
       </c>
       <c r="B49" t="n">
-        <v>79102</v>
+        <v>78566</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5776,34 +5788,37 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6453</v>
+        <v>864</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>694670</v>
+        <v>694844</v>
       </c>
       <c r="R49" t="n">
-        <v>7327462</v>
+        <v>7327214</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -5844,6 +5859,7 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -5866,10 +5882,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>118722871</v>
+        <v>118710593</v>
       </c>
       <c r="B50" t="n">
-        <v>74596</v>
+        <v>79601</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5878,41 +5894,41 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6440</v>
+        <v>6464</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>694807</v>
+        <v>694653</v>
       </c>
       <c r="R50" t="n">
-        <v>7326961</v>
+        <v>7327259</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5956,12 +5972,12 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr">
@@ -5972,10 +5988,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>118722883</v>
+        <v>118710577</v>
       </c>
       <c r="B51" t="n">
-        <v>79469</v>
+        <v>79102</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5984,41 +6000,41 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6456</v>
+        <v>6453</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>694664</v>
+        <v>694341</v>
       </c>
       <c r="R51" t="n">
-        <v>7327029</v>
+        <v>7327604</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6062,12 +6078,12 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr">
@@ -6078,10 +6094,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>118710615</v>
+        <v>118712788</v>
       </c>
       <c r="B52" t="n">
-        <v>78129</v>
+        <v>79594</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6090,41 +6106,41 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>353</v>
+        <v>6462</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>694422</v>
+        <v>694616</v>
       </c>
       <c r="R52" t="n">
-        <v>7327434</v>
+        <v>7327016</v>
       </c>
       <c r="S52" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6168,12 +6184,12 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
@@ -6184,10 +6200,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>118734894</v>
+        <v>118722883</v>
       </c>
       <c r="B53" t="n">
-        <v>56502</v>
+        <v>79469</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6200,39 +6216,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100138</v>
+        <v>6456</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>694817</v>
+        <v>694664</v>
       </c>
       <c r="R53" t="n">
-        <v>7327050</v>
+        <v>7327029</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6262,24 +6273,9 @@
           <t>2024-07-26</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>16:52</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2024-07-26</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>16:52</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>Balgrop med fjädrar i.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6294,12 +6290,12 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr">
@@ -6310,10 +6306,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>118708329</v>
+        <v>118722904</v>
       </c>
       <c r="B54" t="n">
-        <v>91779</v>
+        <v>78484</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6322,41 +6318,41 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>694646</v>
+        <v>694480</v>
       </c>
       <c r="R54" t="n">
-        <v>7327055</v>
+        <v>7327129</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6400,12 +6396,12 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Jennica Andersson</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Jennica Andersson</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr">
@@ -6416,10 +6412,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>118713510</v>
+        <v>118722907</v>
       </c>
       <c r="B55" t="n">
-        <v>82263</v>
+        <v>78484</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6432,34 +6428,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>694805</v>
+        <v>694749</v>
       </c>
       <c r="R55" t="n">
-        <v>7326941</v>
+        <v>7327056</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6506,12 +6502,12 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr">
@@ -6522,10 +6518,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>118710577</v>
+        <v>118710590</v>
       </c>
       <c r="B56" t="n">
-        <v>79102</v>
+        <v>78221</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6538,21 +6534,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6562,10 +6558,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>694341</v>
+        <v>694416</v>
       </c>
       <c r="R56" t="n">
-        <v>7327604</v>
+        <v>7327520</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6628,10 +6624,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>118710587</v>
+        <v>118722908</v>
       </c>
       <c r="B57" t="n">
-        <v>79469</v>
+        <v>78484</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6640,41 +6636,41 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>694382</v>
+        <v>694764</v>
       </c>
       <c r="R57" t="n">
-        <v>7327420</v>
+        <v>7326998</v>
       </c>
       <c r="S57" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -6718,12 +6714,12 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr">
@@ -6734,10 +6730,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>118710622</v>
+        <v>118710608</v>
       </c>
       <c r="B58" t="n">
-        <v>77416</v>
+        <v>78484</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6750,21 +6746,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6487</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6774,10 +6770,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>694578</v>
+        <v>694586</v>
       </c>
       <c r="R58" t="n">
-        <v>7327260</v>
+        <v>7327268</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -6840,10 +6836,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>118710599</v>
+        <v>118710572</v>
       </c>
       <c r="B59" t="n">
-        <v>78220</v>
+        <v>79102</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6856,21 +6852,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6880,10 +6876,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>694671</v>
+        <v>694777</v>
       </c>
       <c r="R59" t="n">
-        <v>7327465</v>
+        <v>7327389</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -6946,10 +6942,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>118710584</v>
+        <v>118710622</v>
       </c>
       <c r="B60" t="n">
-        <v>79073</v>
+        <v>77416</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -6962,21 +6958,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>229821</v>
+        <v>6487</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7052,10 +7048,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>118710589</v>
+        <v>118713297</v>
       </c>
       <c r="B61" t="n">
-        <v>78221</v>
+        <v>90666</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7068,21 +7064,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>228912</v>
+        <v>1588</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Ryvarden</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7092,13 +7088,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>694651</v>
+        <v>694713</v>
       </c>
       <c r="R61" t="n">
-        <v>7327455</v>
+        <v>7326945</v>
       </c>
       <c r="S61" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7142,12 +7138,12 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr">
@@ -7158,10 +7154,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>118708332</v>
+        <v>118710611</v>
       </c>
       <c r="B62" t="n">
-        <v>77868</v>
+        <v>78484</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7174,21 +7170,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7198,13 +7194,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>694666</v>
+        <v>694828</v>
       </c>
       <c r="R62" t="n">
-        <v>7327052</v>
+        <v>7327045</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7248,12 +7244,12 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Jennica Andersson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Jennica Andersson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr">
@@ -7264,10 +7260,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>118712794</v>
+        <v>118734905</v>
       </c>
       <c r="B63" t="n">
-        <v>78220</v>
+        <v>5166</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7276,38 +7272,43 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6446</v>
+        <v>100526</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>694796</v>
+        <v>694594</v>
       </c>
       <c r="R63" t="n">
-        <v>7327132</v>
+        <v>7327119</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7337,11 +7338,21 @@
           <t>2024-07-26</t>
         </is>
       </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>15:43</t>
+        </is>
+      </c>
       <c r="AA63" t="inlineStr">
         <is>
           <t>2024-07-26</t>
         </is>
       </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>15:43</t>
+        </is>
+      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
@@ -7350,16 +7361,36 @@
       </c>
       <c r="AG63" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL63" t="inlineStr">
+        <is>
+          <t>Klen granlåga.</t>
+        </is>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>Picea abies # Klen granlåga.</t>
+        </is>
       </c>
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr">
@@ -7370,10 +7401,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>118713300</v>
+        <v>118712785</v>
       </c>
       <c r="B64" t="n">
-        <v>79601</v>
+        <v>79102</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7382,38 +7413,38 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6464</v>
+        <v>6453</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>694521</v>
+        <v>694796</v>
       </c>
       <c r="R64" t="n">
-        <v>7327152</v>
+        <v>7327132</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7460,12 +7491,12 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr">
@@ -7476,10 +7507,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>118713496</v>
+        <v>118713298</v>
       </c>
       <c r="B65" t="n">
-        <v>79469</v>
+        <v>79102</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7488,25 +7519,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6456</v>
+        <v>6453</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7516,10 +7547,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>694501</v>
+        <v>694390</v>
       </c>
       <c r="R65" t="n">
-        <v>7327187</v>
+        <v>7327361</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7582,10 +7613,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>118710617</v>
+        <v>118713495</v>
       </c>
       <c r="B66" t="n">
-        <v>91779</v>
+        <v>79469</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7598,21 +7629,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4364</v>
+        <v>6456</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7622,13 +7653,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>694404</v>
+        <v>694520</v>
       </c>
       <c r="R66" t="n">
-        <v>7327574</v>
+        <v>7327169</v>
       </c>
       <c r="S66" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -7672,12 +7703,12 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr">
@@ -7688,10 +7719,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>118713504</v>
+        <v>118710596</v>
       </c>
       <c r="B67" t="n">
-        <v>78220</v>
+        <v>79601</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7700,48 +7731,41 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6446</v>
+        <v>6464</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>694577</v>
+        <v>694713</v>
       </c>
       <c r="R67" t="n">
-        <v>7327264</v>
+        <v>7327186</v>
       </c>
       <c r="S67" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -7779,19 +7803,18 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
-      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr">
@@ -7802,10 +7825,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>118713515</v>
+        <v>118710610</v>
       </c>
       <c r="B68" t="n">
-        <v>79600</v>
+        <v>78484</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7814,20 +7837,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -7842,13 +7865,13 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>694667</v>
+        <v>694613</v>
       </c>
       <c r="R68" t="n">
-        <v>7327042</v>
+        <v>7327275</v>
       </c>
       <c r="S68" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -7892,12 +7915,12 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr">
@@ -7908,10 +7931,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>118713499</v>
+        <v>118722871</v>
       </c>
       <c r="B69" t="n">
-        <v>79601</v>
+        <v>74596</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7920,38 +7943,38 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6464</v>
+        <v>6440</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>694753</v>
+        <v>694807</v>
       </c>
       <c r="R69" t="n">
-        <v>7327193</v>
+        <v>7326961</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7998,12 +8021,12 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr">
@@ -8014,10 +8037,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>118710591</v>
+        <v>118712794</v>
       </c>
       <c r="B70" t="n">
-        <v>78221</v>
+        <v>78220</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8030,37 +8053,37 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>694578</v>
+        <v>694796</v>
       </c>
       <c r="R70" t="n">
-        <v>7327260</v>
+        <v>7327132</v>
       </c>
       <c r="S70" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8104,12 +8127,12 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr">
@@ -8120,10 +8143,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>118710583</v>
+        <v>118713506</v>
       </c>
       <c r="B71" t="n">
-        <v>79073</v>
+        <v>78566</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8136,21 +8159,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>229821</v>
+        <v>864</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8160,13 +8183,13 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>694393</v>
+        <v>694810</v>
       </c>
       <c r="R71" t="n">
-        <v>7327476</v>
+        <v>7326940</v>
       </c>
       <c r="S71" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -8210,12 +8233,12 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr">
@@ -8226,10 +8249,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>118722907</v>
+        <v>118712793</v>
       </c>
       <c r="B72" t="n">
-        <v>78484</v>
+        <v>77879</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8242,21 +8265,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>502</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ladlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium tigillare</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Pers.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8266,10 +8289,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>694749</v>
+        <v>694548</v>
       </c>
       <c r="R72" t="n">
-        <v>7327056</v>
+        <v>7327036</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8316,12 +8339,12 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr">
@@ -8332,10 +8355,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>118713507</v>
+        <v>118710601</v>
       </c>
       <c r="B73" t="n">
-        <v>78484</v>
+        <v>78566</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8348,21 +8371,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8372,13 +8395,13 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>694577</v>
+        <v>694828</v>
       </c>
       <c r="R73" t="n">
-        <v>7327264</v>
+        <v>7327045</v>
       </c>
       <c r="S73" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -8422,12 +8445,12 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr">
@@ -8544,10 +8567,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>118710575</v>
+        <v>118713515</v>
       </c>
       <c r="B75" t="n">
-        <v>79102</v>
+        <v>79600</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8556,25 +8579,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6453</v>
+        <v>6463</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8584,13 +8607,13 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>694532</v>
+        <v>694667</v>
       </c>
       <c r="R75" t="n">
-        <v>7327517</v>
+        <v>7327042</v>
       </c>
       <c r="S75" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -8634,12 +8657,12 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr">
@@ -8650,10 +8673,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>118710600</v>
+        <v>118710621</v>
       </c>
       <c r="B76" t="n">
-        <v>78220</v>
+        <v>77416</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8666,21 +8689,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6446</v>
+        <v>6487</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8690,10 +8713,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>694405</v>
+        <v>694395</v>
       </c>
       <c r="R76" t="n">
-        <v>7327511</v>
+        <v>7327484</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -8756,10 +8779,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>118722882</v>
+        <v>118708331</v>
       </c>
       <c r="B77" t="n">
-        <v>79469</v>
+        <v>77416</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8768,41 +8791,41 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6456</v>
+        <v>6487</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>694501</v>
+        <v>694666</v>
       </c>
       <c r="R77" t="n">
-        <v>7327178</v>
+        <v>7327052</v>
       </c>
       <c r="S77" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -8846,12 +8869,12 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Jennica Andersson</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Jennica Andersson</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr">
@@ -8862,10 +8885,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>118710582</v>
+        <v>118713485</v>
       </c>
       <c r="B78" t="n">
-        <v>79073</v>
+        <v>79102</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -8878,21 +8901,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8902,13 +8925,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>694776</v>
+        <v>694605</v>
       </c>
       <c r="R78" t="n">
-        <v>7327401</v>
+        <v>7327124</v>
       </c>
       <c r="S78" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -8952,12 +8975,12 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr">
@@ -8968,10 +8991,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>118722921</v>
+        <v>118710591</v>
       </c>
       <c r="B79" t="n">
-        <v>91070</v>
+        <v>78221</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -8980,41 +9003,41 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>760</v>
+        <v>228912</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>694676</v>
+        <v>694578</v>
       </c>
       <c r="R79" t="n">
-        <v>7327049</v>
+        <v>7327260</v>
       </c>
       <c r="S79" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9058,12 +9081,12 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr">
@@ -9074,10 +9097,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>118712796</v>
+        <v>118708330</v>
       </c>
       <c r="B80" t="n">
-        <v>79600</v>
+        <v>91779</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9090,37 +9113,37 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6463</v>
+        <v>4364</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>694616</v>
+        <v>694661</v>
       </c>
       <c r="R80" t="n">
-        <v>7327016</v>
+        <v>7327056</v>
       </c>
       <c r="S80" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -9164,12 +9187,12 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Jennica Andersson</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Jennica Andersson</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr">
@@ -9180,10 +9203,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>118710579</v>
+        <v>118712791</v>
       </c>
       <c r="B81" t="n">
-        <v>79102</v>
+        <v>78221</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9196,37 +9219,37 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>694578</v>
+        <v>694796</v>
       </c>
       <c r="R81" t="n">
-        <v>7327260</v>
+        <v>7327132</v>
       </c>
       <c r="S81" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -9270,12 +9293,12 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr">
@@ -9286,10 +9309,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>118713483</v>
+        <v>118713304</v>
       </c>
       <c r="B82" t="n">
-        <v>74596</v>
+        <v>91779</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9298,25 +9321,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6440</v>
+        <v>4364</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9326,10 +9349,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>694804</v>
+        <v>694424</v>
       </c>
       <c r="R82" t="n">
-        <v>7326934</v>
+        <v>7327457</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9392,10 +9415,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>118710603</v>
+        <v>118710573</v>
       </c>
       <c r="B83" t="n">
-        <v>90654</v>
+        <v>79102</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9404,25 +9427,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1503</v>
+        <v>6453</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9432,10 +9455,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>694507</v>
+        <v>694670</v>
       </c>
       <c r="R83" t="n">
-        <v>7327295</v>
+        <v>7327462</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9498,10 +9521,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>118710601</v>
+        <v>118712792</v>
       </c>
       <c r="B84" t="n">
-        <v>78566</v>
+        <v>79601</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9510,41 +9533,41 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>864</v>
+        <v>6464</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>694828</v>
+        <v>694616</v>
       </c>
       <c r="R84" t="n">
-        <v>7327045</v>
+        <v>7327016</v>
       </c>
       <c r="S84" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
@@ -9588,12 +9611,12 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr">
@@ -9604,10 +9627,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>118710604</v>
+        <v>118713513</v>
       </c>
       <c r="B85" t="n">
-        <v>78566</v>
+        <v>79600</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9616,44 +9639,41 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>864</v>
+        <v>6463</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>694844</v>
+        <v>694753</v>
       </c>
       <c r="R85" t="n">
-        <v>7327214</v>
+        <v>7327193</v>
       </c>
       <c r="S85" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -9691,19 +9711,18 @@
       <c r="AE85" t="b">
         <v>0</v>
       </c>
-      <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="b">
         <v>0</v>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr">
@@ -9714,53 +9733,53 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>118710602</v>
+        <v>118734898</v>
       </c>
       <c r="B86" t="n">
-        <v>89906</v>
+        <v>95394</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5685</v>
+        <v>53</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>694778</v>
+        <v>694544</v>
       </c>
       <c r="R86" t="n">
-        <v>7327400</v>
+        <v>7327230</v>
       </c>
       <c r="S86" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -9787,9 +9806,19 @@
           <t>2024-07-26</t>
         </is>
       </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>16:23</t>
+        </is>
+      </c>
       <c r="AA86" t="inlineStr">
         <is>
           <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>16:23</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9804,12 +9833,12 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr">
@@ -9820,10 +9849,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>118734897</v>
+        <v>118713510</v>
       </c>
       <c r="B87" t="n">
-        <v>91779</v>
+        <v>82263</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9832,38 +9861,38 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4364</v>
+        <v>1312</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>694616</v>
+        <v>694805</v>
       </c>
       <c r="R87" t="n">
-        <v>7327269</v>
+        <v>7326941</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9893,19 +9922,9 @@
           <t>2024-07-26</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
       <c r="AA87" t="inlineStr">
         <is>
           <t>2024-07-26</t>
-        </is>
-      </c>
-      <c r="AB87" t="inlineStr">
-        <is>
-          <t>16:30</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9920,12 +9939,12 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr">
@@ -9936,10 +9955,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>118722920</v>
+        <v>118734894</v>
       </c>
       <c r="B88" t="n">
-        <v>91070</v>
+        <v>56502</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -9948,38 +9967,43 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>760</v>
+        <v>100138</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>694459</v>
+        <v>694817</v>
       </c>
       <c r="R88" t="n">
-        <v>7327152</v>
+        <v>7327050</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10009,9 +10033,24 @@
           <t>2024-07-26</t>
         </is>
       </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>16:52</t>
+        </is>
+      </c>
       <c r="AA88" t="inlineStr">
         <is>
           <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>16:52</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>Balgrop med fjädrar i.</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10026,12 +10065,12 @@
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Klas Magnusson</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr">
@@ -10042,10 +10081,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>118713298</v>
+        <v>118710602</v>
       </c>
       <c r="B89" t="n">
-        <v>79102</v>
+        <v>89906</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10054,25 +10093,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6453</v>
+        <v>5685</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10082,13 +10121,13 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>694390</v>
+        <v>694778</v>
       </c>
       <c r="R89" t="n">
-        <v>7327361</v>
+        <v>7327400</v>
       </c>
       <c r="S89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -10132,12 +10171,12 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr">
@@ -10148,10 +10187,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>118712788</v>
+        <v>118710578</v>
       </c>
       <c r="B90" t="n">
-        <v>79594</v>
+        <v>79102</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10160,41 +10199,41 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6462</v>
+        <v>6453</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>694616</v>
+        <v>694436</v>
       </c>
       <c r="R90" t="n">
-        <v>7327016</v>
+        <v>7327431</v>
       </c>
       <c r="S90" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -10238,12 +10277,12 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr">
@@ -10254,10 +10293,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>118713513</v>
+        <v>118713499</v>
       </c>
       <c r="B91" t="n">
-        <v>79600</v>
+        <v>79601</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10270,21 +10309,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6463</v>
+        <v>6464</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10360,10 +10399,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>118734899</v>
+        <v>118710598</v>
       </c>
       <c r="B92" t="n">
-        <v>97867</v>
+        <v>79601</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10376,37 +10415,37 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>221952</v>
+        <v>6464</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>694504</v>
+        <v>694708</v>
       </c>
       <c r="R92" t="n">
-        <v>7327185</v>
+        <v>7327141</v>
       </c>
       <c r="S92" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -10433,19 +10472,9 @@
           <t>2024-07-26</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>16:21</t>
-        </is>
-      </c>
       <c r="AA92" t="inlineStr">
         <is>
           <t>2024-07-26</t>
-        </is>
-      </c>
-      <c r="AB92" t="inlineStr">
-        <is>
-          <t>16:21</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10460,12 +10489,12 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr">
@@ -10476,10 +10505,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>118713518</v>
+        <v>118722903</v>
       </c>
       <c r="B93" t="n">
-        <v>41094</v>
+        <v>90522</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10492,34 +10521,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>215713</v>
+        <v>5432</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Grå blåbärsfältmätare</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Entephria caesiata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Denis &amp; Schiffermüller, 1775)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>694654</v>
+        <v>694725</v>
       </c>
       <c r="R93" t="n">
-        <v>7327049</v>
+        <v>7327052</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10566,12 +10595,12 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr">
@@ -10582,10 +10611,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>118722892</v>
+        <v>118713486</v>
       </c>
       <c r="B94" t="n">
-        <v>79601</v>
+        <v>79073</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10594,38 +10623,38 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6464</v>
+        <v>229821</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>694522</v>
+        <v>694577</v>
       </c>
       <c r="R94" t="n">
-        <v>7327143</v>
+        <v>7327264</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10672,12 +10701,12 @@
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr">
@@ -10688,10 +10717,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>522308</v>
+        <v>118713484</v>
       </c>
       <c r="B95" t="n">
-        <v>90858</v>
+        <v>79102</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10700,38 +10729,38 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1506</v>
+        <v>6453</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Trollberget, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>693623</v>
+        <v>694578</v>
       </c>
       <c r="R95" t="n">
-        <v>7327828</v>
+        <v>7327177</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10758,12 +10787,12 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2007-09-08</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2007-09-08</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10778,22 +10807,26 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Mariell Vikström</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Mariell Vikström</t>
-        </is>
-      </c>
-      <c r="AY95" t="inlineStr"/>
+          <t>Linnea Ingelsbo</t>
+        </is>
+      </c>
+      <c r="AY95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>118708330</v>
+        <v>118710618</v>
       </c>
       <c r="B96" t="n">
-        <v>91779</v>
+        <v>79600</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -10806,21 +10839,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>4364</v>
+        <v>6463</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10830,13 +10863,13 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>694661</v>
+        <v>694712</v>
       </c>
       <c r="R96" t="n">
-        <v>7327056</v>
+        <v>7327188</v>
       </c>
       <c r="S96" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -10880,12 +10913,12 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Jennica Andersson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Jennica Andersson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr">
@@ -10896,7 +10929,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>118722904</v>
+        <v>118713303</v>
       </c>
       <c r="B97" t="n">
         <v>78484</v>
@@ -10932,14 +10965,14 @@
       <c r="I97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>694480</v>
+        <v>694709</v>
       </c>
       <c r="R97" t="n">
-        <v>7327129</v>
+        <v>7326944</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -10986,12 +11019,12 @@
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
@@ -11002,10 +11035,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>118713486</v>
+        <v>118722909</v>
       </c>
       <c r="B98" t="n">
-        <v>79073</v>
+        <v>78484</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11018,34 +11051,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>694577</v>
+        <v>694808</v>
       </c>
       <c r="R98" t="n">
-        <v>7327264</v>
+        <v>7326935</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11092,12 +11125,12 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Brian Johnson</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr">
@@ -11108,10 +11141,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>118710621</v>
+        <v>118708332</v>
       </c>
       <c r="B99" t="n">
-        <v>77416</v>
+        <v>77868</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11124,21 +11157,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6487</v>
+        <v>6437</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11148,13 +11181,13 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>694395</v>
+        <v>694666</v>
       </c>
       <c r="R99" t="n">
-        <v>7327484</v>
+        <v>7327052</v>
       </c>
       <c r="S99" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -11198,12 +11231,12 @@
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Jennica Andersson</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Jennica Andersson</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr">
@@ -11214,10 +11247,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>118710580</v>
+        <v>118710599</v>
       </c>
       <c r="B100" t="n">
-        <v>79102</v>
+        <v>78220</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11230,21 +11263,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11254,10 +11287,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>694680</v>
+        <v>694671</v>
       </c>
       <c r="R100" t="n">
-        <v>7327208</v>
+        <v>7327465</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11320,10 +11353,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>118713484</v>
+        <v>118713497</v>
       </c>
       <c r="B101" t="n">
-        <v>79102</v>
+        <v>78221</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11336,21 +11369,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11360,10 +11393,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>694578</v>
+        <v>694577</v>
       </c>
       <c r="R101" t="n">
-        <v>7327177</v>
+        <v>7327264</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11426,10 +11459,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>118710596</v>
+        <v>118712786</v>
       </c>
       <c r="B102" t="n">
-        <v>79601</v>
+        <v>79073</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11438,41 +11471,41 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6464</v>
+        <v>229821</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Björnideforsen B, Pi lm</t>
+          <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>694713</v>
+        <v>694548</v>
       </c>
       <c r="R102" t="n">
-        <v>7327186</v>
+        <v>7327036</v>
       </c>
       <c r="S102" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
@@ -11516,12 +11549,12 @@
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr">
@@ -11532,10 +11565,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>118712795</v>
+        <v>118710588</v>
       </c>
       <c r="B103" t="n">
-        <v>77416</v>
+        <v>91969</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11548,37 +11581,37 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6487</v>
+        <v>2079</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>694796</v>
+        <v>694455</v>
       </c>
       <c r="R103" t="n">
-        <v>7327132</v>
+        <v>7327388</v>
       </c>
       <c r="S103" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -11622,12 +11655,12 @@
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr">
@@ -11638,10 +11671,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>118710590</v>
+        <v>118710623</v>
       </c>
       <c r="B104" t="n">
-        <v>78221</v>
+        <v>91773</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11654,21 +11687,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>228912</v>
+        <v>4362</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -11678,10 +11711,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>694416</v>
+        <v>694340</v>
       </c>
       <c r="R104" t="n">
-        <v>7327520</v>
+        <v>7327606</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -11744,10 +11777,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>118713508</v>
+        <v>118710579</v>
       </c>
       <c r="B105" t="n">
-        <v>78484</v>
+        <v>79102</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -11760,21 +11793,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -11784,13 +11817,13 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>694807</v>
+        <v>694578</v>
       </c>
       <c r="R105" t="n">
-        <v>7326939</v>
+        <v>7327260</v>
       </c>
       <c r="S105" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -11834,12 +11867,12 @@
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Linnea Ingelsbo</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr">
@@ -11850,7 +11883,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>118712785</v>
+        <v>118710575</v>
       </c>
       <c r="B106" t="n">
         <v>79102</v>
@@ -11886,17 +11919,17 @@
       <c r="I106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>694796</v>
+        <v>694532</v>
       </c>
       <c r="R106" t="n">
-        <v>7327132</v>
+        <v>7327517</v>
       </c>
       <c r="S106" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -11940,12 +11973,12 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr">
@@ -11956,10 +11989,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>118708331</v>
+        <v>118710584</v>
       </c>
       <c r="B107" t="n">
-        <v>77416</v>
+        <v>79073</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -11972,21 +12005,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6487</v>
+        <v>229821</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -11996,13 +12029,13 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>694666</v>
+        <v>694578</v>
       </c>
       <c r="R107" t="n">
-        <v>7327052</v>
+        <v>7327260</v>
       </c>
       <c r="S107" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -12046,12 +12079,12 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Jennica Andersson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Jennica Andersson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr">
@@ -12062,10 +12095,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>118722880</v>
+        <v>118710589</v>
       </c>
       <c r="B108" t="n">
-        <v>97867</v>
+        <v>78221</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12074,41 +12107,41 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>221952</v>
+        <v>228912</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>694786</v>
+        <v>694651</v>
       </c>
       <c r="R108" t="n">
-        <v>7326967</v>
+        <v>7327455</v>
       </c>
       <c r="S108" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
@@ -12152,12 +12185,12 @@
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Brian Johnson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr">
@@ -12168,10 +12201,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>118710593</v>
+        <v>118713488</v>
       </c>
       <c r="B109" t="n">
-        <v>79601</v>
+        <v>79073</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12180,25 +12213,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6464</v>
+        <v>229821</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12208,13 +12241,13 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>694653</v>
+        <v>694605</v>
       </c>
       <c r="R109" t="n">
-        <v>7327259</v>
+        <v>7327124</v>
       </c>
       <c r="S109" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
@@ -12258,12 +12291,12 @@
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Linnea Ingelsbo</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr">
@@ -12274,10 +12307,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>118713500</v>
+        <v>118713512</v>
       </c>
       <c r="B110" t="n">
-        <v>79601</v>
+        <v>91779</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12290,21 +12323,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6464</v>
+        <v>4364</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12314,10 +12347,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>694720</v>
+        <v>694609</v>
       </c>
       <c r="R110" t="n">
-        <v>7327209</v>
+        <v>7327059</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12380,10 +12413,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>118710598</v>
+        <v>118710603</v>
       </c>
       <c r="B111" t="n">
-        <v>79601</v>
+        <v>90654</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12392,25 +12425,25 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6464</v>
+        <v>1503</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12420,10 +12453,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>694708</v>
+        <v>694507</v>
       </c>
       <c r="R111" t="n">
-        <v>7327141</v>
+        <v>7327295</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -12486,10 +12519,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>118734902</v>
+        <v>118710600</v>
       </c>
       <c r="B112" t="n">
-        <v>79469</v>
+        <v>78220</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -12498,44 +12531,41 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6456</v>
+        <v>6446</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Björnideforsen, Pi lm</t>
+          <t>Björnideforsen B, Pi lm</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>694498</v>
+        <v>694405</v>
       </c>
       <c r="R112" t="n">
-        <v>7327189</v>
+        <v>7327511</v>
       </c>
       <c r="S112" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T112" t="inlineStr">
         <is>
@@ -12562,164 +12592,32 @@
           <t>2024-07-26</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr">
-        <is>
-          <t>16:07</t>
-        </is>
-      </c>
       <c r="AA112" t="inlineStr">
         <is>
           <t>2024-07-26</t>
         </is>
       </c>
-      <c r="AB112" t="inlineStr">
-        <is>
-          <t>16:07</t>
-        </is>
-      </c>
       <c r="AD112" t="b">
         <v>0</v>
       </c>
       <c r="AE112" t="b">
         <v>0</v>
       </c>
-      <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ112" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK112" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO112" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Klas Magnusson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>118713489</v>
-      </c>
-      <c r="B113" t="n">
-        <v>79073</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>229821</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Vedflamlav</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Ramboldia elabens</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>Björnideforsen B, Pi lm</t>
-        </is>
-      </c>
-      <c r="Q113" t="n">
-        <v>694623</v>
-      </c>
-      <c r="R113" t="n">
-        <v>7327061</v>
-      </c>
-      <c r="S113" t="n">
-        <v>10</v>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>Norrbotten</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>Pite lappmark</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>Arvidsjaur</t>
-        </is>
-      </c>
-      <c r="Y113" t="inlineStr">
-        <is>
-          <t>2024-07-26</t>
-        </is>
-      </c>
-      <c r="AA113" t="inlineStr">
-        <is>
-          <t>2024-07-26</t>
-        </is>
-      </c>
-      <c r="AD113" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE113" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG113" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT113" t="inlineStr"/>
-      <c r="AW113" t="inlineStr">
-        <is>
-          <t>Linnea Ingelsbo</t>
-        </is>
-      </c>
-      <c r="AX113" t="inlineStr">
-        <is>
-          <t>Linnea Ingelsbo</t>
-        </is>
-      </c>
-      <c r="AY113" t="inlineStr">
         <is>
           <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
         </is>
